--- a/resource/AutomationDriverUsage.xlsx
+++ b/resource/AutomationDriverUsage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsullivan\Eclipse\workspace\AutomationDriver\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsullivan\Eclipse\workspace\AutomationDriverV2\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="119">
   <si>
     <t>Keyword</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Scrolls the current browser page to display the desired object</t>
   </si>
   <si>
-    <t>The variable values</t>
-  </si>
-  <si>
     <t>Number of seconds (must be a positive integer value)</t>
   </si>
   <si>
@@ -396,6 +393,9 @@
   </si>
   <si>
     <t>Number of milliseconds (must be a positive integer value) to hold; example 300 --&gt; 300 milliseconds</t>
+  </si>
+  <si>
+    <t>Compare Variable</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -940,13 +950,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -957,14 +967,14 @@
     <col min="4" max="4" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,22 +996,25 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1019,16 +1032,19 @@
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>116</v>
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>58</v>
       </c>
@@ -1041,26 +1057,29 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -1073,31 +1092,34 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>86</v>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1105,26 +1127,29 @@
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>10</v>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>56</v>
       </c>
@@ -1137,31 +1162,34 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>10</v>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1179,21 +1207,24 @@
         <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>117</v>
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1211,16 +1242,19 @@
         <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -1243,16 +1277,19 @@
         <v>9</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1275,53 +1312,59 @@
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1330,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
@@ -1339,16 +1382,19 @@
         <v>9</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
@@ -1371,16 +1417,19 @@
         <v>9</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1403,16 +1452,19 @@
         <v>9</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -1435,16 +1487,19 @@
         <v>9</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
@@ -1467,16 +1522,19 @@
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>62</v>
       </c>
@@ -1499,21 +1557,24 @@
         <v>65</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1531,21 +1592,24 @@
         <v>15</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>13</v>
@@ -1554,7 +1618,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>9</v>
@@ -1563,21 +1627,24 @@
         <v>9</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1595,21 +1662,24 @@
         <v>15</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>13</v>
@@ -1627,16 +1697,19 @@
         <v>9</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>80</v>
       </c>
@@ -1659,52 +1732,58 @@
         <v>9</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1721,14 +1800,17 @@
         <v>9</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -1751,16 +1833,19 @@
         <v>9</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1783,16 +1868,19 @@
         <v>9</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -1806,89 +1894,98 @@
         <v>9</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="B28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="5" t="s">
+    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -1911,16 +2008,19 @@
         <v>9</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
@@ -1943,21 +2043,24 @@
         <v>15</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
@@ -1966,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>9</v>
@@ -1975,16 +2078,19 @@
         <v>9</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="108" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2001,22 +2107,25 @@
         <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>8</v>
       </c>
@@ -2039,16 +2148,19 @@
         <v>9</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>69</v>
       </c>
@@ -2071,16 +2183,19 @@
         <v>65</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>117</v>
+        <v>9</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
@@ -2103,21 +2218,24 @@
         <v>9</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
@@ -2135,16 +2253,19 @@
         <v>9</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>78</v>
       </c>
@@ -2167,16 +2288,19 @@
         <v>9</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>75</v>
       </c>
@@ -2199,12 +2323,15 @@
         <v>9</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2212,87 +2339,92 @@
   <sortState ref="A2:J30">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="B26:J27 B37:J226 B13:J17 B2:J10 B30:J31 B33:J35 B32:D32 F32:J32 B20:J24">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="B26:G27 B40:K226 B13:G17 B30:G31 B33:G35 B32:D32 F32:G32 B20:G24 B8:G10 I8:K10 I20:K24 I30:K35 I13:K17 B37:G39 I37:K39 I26:K27 B2:K7">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10 A27 A37:A1048576 A30:A35 A13:A17 A20:A24">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="17">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:J25">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+  <conditionalFormatting sqref="B25:G25 I25:K25">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
       <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:J36">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="B36:G36 I36:K36">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:J29">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="B28:G29 I28:K29">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:J11 B12 F12:I12">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="B11:G11 B12 F12:G12 I12:J12 I11:K11">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"ignored"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="C12:D12">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D12">
+  <conditionalFormatting sqref="B18:G19 I18:K19">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:J19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"ignored"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"ignored"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H39">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>

--- a/resource/AutomationDriverUsage.xlsx
+++ b/resource/AutomationDriverUsage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="117">
   <si>
     <t>Keyword</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Number of seconds (must be a positive integer value)</t>
   </si>
   <si>
-    <t>REFRESH</t>
-  </si>
-  <si>
     <t>Reloads the current page</t>
   </si>
   <si>
@@ -386,16 +383,13 @@
 Screenshot_&lt;spreadsheet&gt;_&lt;worksheet&gt;_&lt;testcase&gt;_&lt;yyyy-MM-dd HH:mm:ss&gt;.png</t>
   </si>
   <si>
-    <t>The text value of the attribute</t>
-  </si>
-  <si>
-    <t>The text value of the element</t>
-  </si>
-  <si>
     <t>Number of milliseconds (must be a positive integer value) to hold; example 300 --&gt; 300 milliseconds</t>
   </si>
   <si>
     <t>Compare Variable</t>
+  </si>
+  <si>
+    <t>RELOAD</t>
   </si>
 </sst>
 </file>
@@ -431,7 +425,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +435,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -501,13 +507,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -956,12 +968,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -997,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1010,25 +1022,25 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1038,14 +1050,14 @@
         <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1063,10 +1075,10 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1080,7 +1092,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1098,10 +1110,10 @@
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1115,11 +1127,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1133,10 +1145,10 @@
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1150,7 +1162,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1168,10 +1180,10 @@
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1185,25 +1197,25 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1213,18 +1225,18 @@
         <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1232,7 +1244,7 @@
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1255,16 +1267,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1290,16 +1302,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1325,55 +1337,55 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>117</v>
+      <c r="E12" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
@@ -1395,16 +1407,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1430,16 +1442,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1465,16 +1477,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1500,22 +1512,22 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1535,7 +1547,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1547,13 +1559,13 @@
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="8" t="s">
         <v>65</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1570,22 +1582,22 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>108</v>
+      <c r="A18" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -1605,20 +1617,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>109</v>
+      <c r="A19" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>9</v>
@@ -1640,48 +1652,48 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1710,16 +1722,16 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1745,45 +1757,45 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1823,7 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1846,7 +1858,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1881,7 +1893,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1893,7 +1905,7 @@
       <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1916,11 +1928,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
@@ -1951,11 +1963,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -1986,16 +1998,16 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2021,25 +2033,25 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -2056,20 +2068,20 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>112</v>
+      <c r="E32" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>9</v>
@@ -2091,23 +2103,23 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>95</v>
+      <c r="F33" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>15</v>
@@ -2126,7 +2138,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2161,16 +2173,16 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2179,7 +2191,7 @@
       <c r="F35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="8" t="s">
         <v>65</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -2189,23 +2201,23 @@
         <v>15</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -2231,11 +2243,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
@@ -2266,16 +2278,16 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -2301,16 +2313,16 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -2339,7 +2351,7 @@
   <sortState ref="A2:J30">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="B26:G27 B40:K226 B13:G17 B30:G31 B33:G35 B32:D32 F32:G32 B20:G24 B8:G10 I8:K10 I20:K24 I30:K35 I13:K17 B37:G39 I37:K39 I26:K27 B2:K7">
+  <conditionalFormatting sqref="B26:G27 B40:K226 B13:G17 B30:G31 B33:G35 B32:D32 F32:G32 B20:G24 B8:G10 I8:K10 I20:K24 I13:K17 B37:G39 I37:K39 I26:K27 B2:K7 I30:K35">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>

--- a/resource/AutomationDriverUsage.xlsx
+++ b/resource/AutomationDriverUsage.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Keywords" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -526,7 +526,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -968,7 +1008,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2352,92 +2392,92 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="B26:G27 B40:K226 B13:G17 B30:G31 B33:G35 B32:D32 F32:G32 B20:G24 B8:G10 I8:K10 I20:K24 I13:K17 B37:G39 I37:K39 I26:K27 B2:K7 I30:K35">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10 A27 A37:A1048576 A30:A35 A13:A17 A20:A24">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="17">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:G25 I25:K25">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="15">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="14">
       <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:G36 I36:K36">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="12">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:G29 I28:K29">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="10">
       <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:G11 B12 F12:G12 I12:J12 I11:K11">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="8">
       <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:G19 I18:K19">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="3">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H39">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resource/AutomationDriverUsage.xlsx
+++ b/resource/AutomationDriverUsage.xlsx
@@ -247,9 +247,6 @@
     <t>ASSERTATTRIBUTE</t>
   </si>
   <si>
-    <t>The expected value</t>
-  </si>
-  <si>
     <t>Attribute type - any valid HTML attribute</t>
   </si>
   <si>
@@ -390,6 +387,10 @@
   </si>
   <si>
     <t>RELOAD</t>
+  </si>
+  <si>
+    <t>The expected value
+A previously defined variable</t>
   </si>
 </sst>
 </file>
@@ -526,47 +527,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1008,7 +969,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32:J32"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1010,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1066,7 +1027,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>13</v>
@@ -1075,25 +1036,25 @@
         <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -1171,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1241,7 +1202,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>13</v>
@@ -1276,7 +1237,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1378,45 +1339,45 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
@@ -1425,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
@@ -1623,10 +1584,10 @@
     </row>
     <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>13</v>
@@ -1658,10 +1619,10 @@
     </row>
     <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -1670,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>9</v>
@@ -1696,7 +1657,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1731,7 +1692,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>13</v>
@@ -1763,10 +1724,10 @@
     </row>
     <row r="22" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -1798,10 +1759,10 @@
     </row>
     <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -1831,10 +1792,10 @@
     </row>
     <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
@@ -1946,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>9</v>
@@ -1969,10 +1930,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
@@ -2004,10 +1965,10 @@
     </row>
     <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -2039,10 +2000,10 @@
     </row>
     <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>13</v>
@@ -2069,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -2109,10 +2070,10 @@
     </row>
     <row r="32" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>13</v>
@@ -2121,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>9</v>
@@ -2159,7 +2120,7 @@
         <v>33</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>15</v>
@@ -2284,45 +2245,45 @@
     </row>
     <row r="37" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>13</v>
@@ -2349,15 +2310,15 @@
         <v>10</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>13</v>
@@ -2384,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2392,92 +2353,92 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="B26:G27 B40:K226 B13:G17 B30:G31 B33:G35 B32:D32 F32:G32 B20:G24 B8:G10 I8:K10 I20:K24 I13:K17 B37:G39 I37:K39 I26:K27 B2:K7 I30:K35">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10 A27 A37:A1048576 A30:A35 A13:A17 A20:A24">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="17">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:G25 I25:K25">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
       <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:G36 I36:K36">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:G29 I28:K29">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:G11 B12 F12:G12 I12:J12 I11:K11">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:G19 I18:K19">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H39">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
